--- a/BugReportFinalProject.xlsx
+++ b/BugReportFinalProject.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marijana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="252">
   <si>
     <t>Category</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Reporter</t>
   </si>
   <si>
-    <t>Jelena Vicentijevic</t>
-  </si>
-  <si>
     <t>Submit Date</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>Value15</t>
-  </si>
-  <si>
-    <t>02.04.2020.</t>
   </si>
   <si>
     <t>Windows 10 Pro</t>
@@ -416,22 +410,13 @@
     <t>Red colored field with denied sign.</t>
   </si>
   <si>
-    <t>Critical</t>
-  </si>
-  <si>
     <t>Value21</t>
   </si>
   <si>
-    <t>Value22</t>
-  </si>
-  <si>
     <t>Value23</t>
   </si>
   <si>
     <t>Chosen date approved.</t>
-  </si>
-  <si>
-    <t>Password field in registration form - input spaces</t>
   </si>
   <si>
     <t>Password field in registration form - input 12345</t>
@@ -487,9 +472,6 @@
   </si>
   <si>
     <t>It is possible to enter 12345 (low security, communly used) for password. Registration possible.</t>
-  </si>
-  <si>
-    <t>It is possible to enter 5 spaces for password. The password will be accepted. Registration possible.</t>
   </si>
   <si>
     <t>When only one space is inserted in field First name it is possible to proceed with registration (one space is accepted as first name). Registration possible.</t>
@@ -596,22 +578,6 @@
 8. Click Register button;</t>
   </si>
   <si>
-    <t>Used data:
-Step 3:
-Email: mejltest22@gmail.com;
-Step 7:
-First name: inserted space;
-Last name: Vicentijevic;
-Password: apple5;
-Date of Birth: 30. May. 1988;
-Address: Avenue 25;
-City: Phoenix;
-State: Arizona;
-Zip Code: 85003;
-Country: United States;
-Mobile phone: 123456789;</t>
-  </si>
-  <si>
     <t>1. Open browser;
 2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
 3. Insert email address;
@@ -622,11 +588,366 @@
 8. Click Register button;</t>
   </si>
   <si>
+    <t>1. Open browser;
+2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
+3. Insert email address;
+4. Click on button Create an account;
+5. Click on field Password;
+6. Enter 12345;
+7. Fill in all other fields in registration form;
+8. Click Register button;</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
+3. Insert email address;
+4. Click on button Create an account;
+5. Click on field First name;
+6. Input *;
+7. Fill in all other fields in registration form;
+8. Click Register button;</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
+3. Insert email address;
+4. Click on button Create an account;
+5. Click on field Last name;
+6. Input *;
+7. Fill in all other fields in registration form;
+8. Click Register button;</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
+3. Insert email address;
+4. Click on button Create an account;
+5. Click on field Address;
+6. Input space;
+7. Fill in all other fields in registration form;
+8. Click Register button;</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
+3. Insert email address;
+4. Click on button Create an account;
+5. Click on field City;
+6. Input space;
+7. Fill in all other fields in registration form;
+8. Click Register button;</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
+3. Insert email address;
+4. Click on button Create an account;
+5. Click on field Address;
+6. Input slash;
+7. Fill in all other fields in registration form;
+8. Click Register button;</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
+3. Insert email address;
+4. Click on button Create an account;
+5. Click on field City;
+6. Input slash;
+7. Fill in all other fields in registration form;
+8. Click Register button;</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
+3. Insert email address;
+4. Click on button Create an account;
+5. Click on field City;
+6. Input 9;
+7. Fill in all other fields in registration form;
+8. Click Register button;</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
+3. Insert email address;
+4. Click on button Create an account;
+5. Click on field Mobile phone;
+6. Input space;
+7. Fill in all other fields in registration form;
+8. Click Register button;</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
+3. Insert email address;
+4. Click on button Create an account;
+5. Click on field Mobile phone;
+6. Input -;
+7. Fill in all other fields in registration form;
+8. Click Register button;</t>
+  </si>
+  <si>
+    <t>In registration page in registration form in the obligatory field Mobile phone it is possible to enter only sign -.</t>
+  </si>
+  <si>
+    <t>03.04.2020.</t>
+  </si>
+  <si>
+    <t>Women page</t>
+  </si>
+  <si>
+    <t>Filtered products by chosen price rang.</t>
+  </si>
+  <si>
+    <t>In WOMEN page when in slide bar Price Range is selected price range loading page starts without getting response and without filtering products by selected price range.</t>
+  </si>
+  <si>
+    <t>Filter products by price range</t>
+  </si>
+  <si>
+    <t>Filter products by size</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to Home page http://automationpractice.com/index.php;
+3. In menu click on WOMEN;
+4. Page opened;
+5. In left page side locate Size check boxes;
+6. Click on size S;</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to Home page http://automationpractice.com/index.php;
+3. In menu click on WOMEN;
+4. Page opened;
+5. In left page side locate Price Range slide bar;
+6. Move slide bar to chose price range $22.66 - $53.00;</t>
+  </si>
+  <si>
+    <t>Filtered products by chosen size.</t>
+  </si>
+  <si>
+    <t>In WOMEN page when in left page section Size is checked S loading page starts without getting response and without filtering products by chosen size.</t>
+  </si>
+  <si>
+    <t>Value31</t>
+  </si>
+  <si>
+    <t>Testing time: 13:36h</t>
+  </si>
+  <si>
+    <t>Testing time: 13:45h</t>
+  </si>
+  <si>
+    <t>Value32</t>
+  </si>
+  <si>
+    <t>Value33</t>
+  </si>
+  <si>
+    <t>Filter products by color</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to Home page http://automationpractice.com/index.php;
+3. In menu click on WOMEN;
+4. Page opened;
+5. In left page side locate Color check boxes;
+6. Click on color Orange;</t>
+  </si>
+  <si>
+    <t>Filtered products by chosen color</t>
+  </si>
+  <si>
+    <t>In WOMEN page when in left page section Color is checked Orange loading page starts without getting response and without filtering products by chosen color.</t>
+  </si>
+  <si>
+    <t>Testing time: 14:11h</t>
+  </si>
+  <si>
+    <t>Filter products by Compositions</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to Home page http://automationpractice.com/index.php;
+3. In menu click on WOMEN;
+4. Page opened;
+5. In left page side locate Compositions check boxes;
+6. Click on Cotton;</t>
+  </si>
+  <si>
+    <t>Filtered products by chosen material.</t>
+  </si>
+  <si>
+    <t>Testing time: 14:24h</t>
+  </si>
+  <si>
+    <t>Filter products by Categories</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to Home page http://automationpractice.com/index.php;
+3. In menu click on WOMEN;
+4. Page opened;
+5. In left page side locate Categories check boxes;
+6. Click on Tops;</t>
+  </si>
+  <si>
+    <t>Filtered products by chosen type (tops).</t>
+  </si>
+  <si>
+    <t>In WOMEN page when in left page section Compositions is checked Cotton loading page starts without getting response and without filtering products by chosen material.</t>
+  </si>
+  <si>
+    <t>In WOMEN page when in left page section Categories is checked Tops loading page starts without getting response and without filtering products by chosen type.</t>
+  </si>
+  <si>
+    <t>Value34</t>
+  </si>
+  <si>
+    <t>Testing time: 14:31h</t>
+  </si>
+  <si>
+    <t>Filter products by Styles</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to Home page http://automationpractice.com/index.php;
+3. In menu click on WOMEN;
+4. Page opened;
+5. In left page side locate Styles check boxes;
+6. Click on Casual;</t>
+  </si>
+  <si>
+    <t>Filtered products by chosen Styles.</t>
+  </si>
+  <si>
+    <t>In WOMEN page when in left page section Styles is checked Casual loading page starts without getting response and without filtering products by chosen style.</t>
+  </si>
+  <si>
+    <t>Testing time: 14:55h</t>
+  </si>
+  <si>
+    <t>Value35</t>
+  </si>
+  <si>
+    <t>Value36</t>
+  </si>
+  <si>
+    <t>Filter products by Properties</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to Home page http://automationpractice.com/index.php;
+3. In menu click on WOMEN;
+4. Page opened;
+5. In left page side locate Properties check boxes;
+6. Click on Maxi Dress;</t>
+  </si>
+  <si>
+    <t>Filtered products by chosen Property.</t>
+  </si>
+  <si>
+    <t>In WOMEN page when in left page section Properties is checked Maxi Dress loading page starts without getting response and without filtering products by chosen property.</t>
+  </si>
+  <si>
+    <t>Value37</t>
+  </si>
+  <si>
+    <t>Filter products by Availability</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to Home page http://automationpractice.com/index.php;
+3. In menu click on WOMEN;
+4. Page opened;
+5. In left page side locate Availability check boxes;
+6. Click on In stock;</t>
+  </si>
+  <si>
+    <t>Filtered products by chosen Availability.</t>
+  </si>
+  <si>
+    <t>In WOMEN page when in left page section Availability is checked In stock loading page starts without getting response and without filtering products by chosen availability.</t>
+  </si>
+  <si>
+    <t>Testing time: 15:05h</t>
+  </si>
+  <si>
+    <t>Testing time: 15:20h</t>
+  </si>
+  <si>
+    <t>Value38</t>
+  </si>
+  <si>
+    <t>Filter products by Manufacturer</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to Home page http://automationpractice.com/index.php;
+3. In menu click on WOMEN;
+4. Page opened;
+5. In left page side locate Manufacturer check boxes;
+6. Click on  Fashion Manufacturer;</t>
+  </si>
+  <si>
+    <t>Filtered products by chosen Manufacturer.</t>
+  </si>
+  <si>
+    <t>In WOMEN page when in left page section  Manufacturer is checked  Fashion Manufacturer loading page starts without getting response and without filtering products by chosen  Manufacturer.</t>
+  </si>
+  <si>
+    <t>Testing time: 15:25h</t>
+  </si>
+  <si>
+    <t>Filter products by Condition</t>
+  </si>
+  <si>
+    <t>1. Open browser;
+2. Go to Home page http://automationpractice.com/index.php;
+3. In menu click on WOMEN;
+4. Page opened;
+5. In left page side locate Condition check boxes;
+6. Click on  New;</t>
+  </si>
+  <si>
+    <t>Filtered products by chosen Condition.</t>
+  </si>
+  <si>
+    <t>In WOMEN page when in left page section  Condition is checked  New loading page starts without getting response and without filtering products by chosen  Condition.</t>
+  </si>
+  <si>
+    <t>Testing time: 15:30h</t>
+  </si>
+  <si>
+    <t>Ivan Damnjanovic</t>
+  </si>
+  <si>
+    <t>11.04.2020.</t>
+  </si>
+  <si>
+    <t>Used data:
+Step 3:
+Email: mejltestivan@gmail.com;
+Step 7:
+First name: Ivan;
+Last name: Damnjanovic;
+Password: 123456;
+Date of Birth: 30. May. 1988;
+Address: Avenue 25;
+City: Phoenix;
+State: Arizona;
+Zip Code: 85003;
+Country: United States;
+Mobile phone: input space;</t>
+  </si>
+  <si>
     <t>Used data:
 Step 3:
 Email: mejltest23@gmail.com;
 Step 7:
-First name: Jelena;
+First name: Ivan;
 Last name: inserted space;
 Password: apple5;
 Date of Birth: 30. May. 1988;
@@ -640,113 +961,9 @@
   <si>
     <t>Used data:
 Step 3:
-Email: mejltest24@gmail.com;
-Step 7:
-First name: Jelena;
-Last name: Vicentijevic;
-Password: 5 speces;
-Date of Birth: 30. May. 1988;
-Address: Avenue 25;
-City: Phoenix;
-State: Arizona;
-Zip Code: 85003;
-Country: United States;
-Mobile phone: 123456789;</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
-3. Insert email address;
-4. Click on button Create an account;
-5. Click on field Password;
-6. Enter 5 spaces;
-7. Fill in all other fields in registration form;
-8. Click Register button;</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
-3. Insert email address;
-4. Click on button Create an account;
-5. Click on field Password;
-6. Enter 12345;
-7. Fill in all other fields in registration form;
-8. Click Register button;</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
-3. Insert email address;
-4. Click on button Create an account;
-5. Click on field First name;
-6. Input *;
-7. Fill in all other fields in registration form;
-8. Click Register button;</t>
-  </si>
-  <si>
-    <t>Used data:
-Step 3:
-Email: mejltest25@gmail.com;
-Step 7:
-First name: Jelena;
-Last name: Vicentijevic;
-Password: 12345;
-Date of Birth: 30. May. 1988;
-Address: Avenue 25;
-City: Phoenix;
-State: Arizona;
-Zip Code: 85003;
-Country: United States;
-Mobile phone: 123456789;</t>
-  </si>
-  <si>
-    <t>Used data:
-Step 3:
-Email: mejltest26@gmail.com;
-Step 7:
-First name: Jelena;
-Last name: Vicentijevic;
-Password: apple5;
-Date of Birth: 30. May. 1900;
-Address: Avenue 25;
-City: Phoenix;
-State: Arizona;
-Zip Code: 85003;
-Country: United States;
-Mobile phone: 123456789;</t>
-  </si>
-  <si>
-    <t>Used data:
-Step 3:
-Email: mejltest27@gmail.com;
-Step 7:
-First name: *;
-Last name: Vicentijevic;
-Password: apple5;
-Date of Birth: 30. May. 1988;
-Address: Avenue 25;
-City: Phoenix;
-State: Arizona;
-Zip Code: 85003;
-Country: United States;
-Mobile phone: 123456789;</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
-3. Insert email address;
-4. Click on button Create an account;
-5. Click on field Last name;
-6. Input *;
-7. Fill in all other fields in registration form;
-8. Click Register button;</t>
-  </si>
-  <si>
-    <t>Used data:
-Step 3:
 Email: mejltest28@gmail.com;
 Step 7:
-First name: Jelena;
+First name: Ivan;
 Last name: *;
 Password: apple5;
 Date of Birth: 30. May. 1988;
@@ -758,22 +975,124 @@
 Mobile phone: 123456789;</t>
   </si>
   <si>
-    <t>1. Open browser;
-2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
-3. Insert email address;
-4. Click on button Create an account;
-5. Click on field Address;
-6. Input space;
-7. Fill in all other fields in registration form;
-8. Click Register button;</t>
+    <t>Used data:
+Step 3:
+Email: mejltest33@gmail.com;
+Step 7:
+First name: Ivan;
+Last name: Damnjanovic;
+Password: apple5;
+Date of Birth: 30. May. 1988;
+Address: Avenue 25;
+City: 9;
+State: Arizona;
+Zip Code: 85003;
+Country: United States;
+Mobile phone: 123456789;</t>
+  </si>
+  <si>
+    <t>Used data:
+Step 3:
+Email: mejltest34@gmail.com;
+Step 7:
+First name: Ivan;
+Last name: Damnjanovic;
+Password: apple5;
+Date of Birth: 30. May. 1988;
+Address: Avenue 25;
+City: Phoenix;
+State: Arizona;
+Zip Code: 85003;
+Country: United States;
+Mobile phone: -;</t>
+  </si>
+  <si>
+    <t>Used data:
+Step 3:
+Email: mejltest22@gmail.com;
+Step 7:
+First name: inserted space;
+Last name: Damnjanovic;
+Password: apple5;
+Date of Birth: 30. May. 1988;
+Address: Avenue 25;
+City: Phoenix;
+State: Arizona;
+Zip Code: 85003;
+Country: United States;
+Mobile phone: 123456789;</t>
+  </si>
+  <si>
+    <t>Used data:
+Step 3:
+Email: mejltest25@gmail.com;
+Step 7:
+First name: Ivan;
+Last name: Damnjanovic;
+Password: 12345;
+Date of Birth: 30. May. 1988;
+Address: Avenue 25;
+City: Phoenix;
+State: Arizona;
+Zip Code: 85003;
+Country: United States;
+Mobile phone: 123456789;</t>
+  </si>
+  <si>
+    <t>Used data:
+Step 3:
+Email: mejltest26@gmail.com;
+Step 7:
+First name: Ivan;
+Last name: Damnjanovic;
+Password: apple5;
+Date of Birth: 30. May. 1900;
+Address: Avenue 25;
+City: Phoenix;
+State: Arizona;
+Zip Code: 85003;
+Country: United States;
+Mobile phone: 123456789;</t>
+  </si>
+  <si>
+    <t>Used data:
+Step 3:
+Email: mejltest27@gmail.com;
+Step 7:
+First name: *;
+Last name: Damnjanovic;
+Password: apple5;
+Date of Birth: 30. May. 1988;
+Address: Avenue 25;
+City: Phoenix;
+State: Arizona;
+Zip Code: 85003;
+Country: United States;
+Mobile phone: 123456789;</t>
+  </si>
+  <si>
+    <t>Used data:
+Step 3:
+Email: mejltest29@gmail.com;
+Step 7:
+First name: Ivan;
+Last name: Damnjanovic;
+Password: apple5;
+Date of Birth: 30. May. 1988;
+Address: entered space;
+City: Phoenix;
+State: Arizona;
+Zip Code: 85003;
+Country: United States;
+Mobile phone: 123456789;</t>
   </si>
   <si>
     <t>Used data:
 Step 3:
 Email: mejltest30@gmail.com;
 Step 7:
-First name: Jelena;
-Last name: Vicentijevic;
+First name: Ivan;
+Last name: Damnjanovic;
 Password: apple5;
 Date of Birth: 30. May. 1988;
 Address: Avenue 25;
@@ -786,46 +1105,10 @@
   <si>
     <t>Used data:
 Step 3:
-Email: mejltest29@gmail.com;
-Step 7:
-First name: Jelena;
-Last name: Vicentijevic;
-Password: apple5;
-Date of Birth: 30. May. 1988;
-Address: entered space;
-City: Phoenix;
-State: Arizona;
-Zip Code: 85003;
-Country: United States;
-Mobile phone: 123456789;</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
-3. Insert email address;
-4. Click on button Create an account;
-5. Click on field City;
-6. Input space;
-7. Fill in all other fields in registration form;
-8. Click Register button;</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
-3. Insert email address;
-4. Click on button Create an account;
-5. Click on field Address;
-6. Input slash;
-7. Fill in all other fields in registration form;
-8. Click Register button;</t>
-  </si>
-  <si>
-    <t>Used data:
-Step 3:
 Email: mejltest31@gmail.com;
 Step 7:
-First name: Jelena;
-Last name: Vicentijevic;
+First name: Ivan;
+Last name: Damnjanovic;
 Password: apple5;
 Date of Birth: 30. May. 1988;
 Address: /;
@@ -836,22 +1119,12 @@
 Mobile phone: 123456789;</t>
   </si>
   <si>
-    <t>1. Open browser;
-2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
-3. Insert email address;
-4. Click on button Create an account;
-5. Click on field City;
-6. Input slash;
-7. Fill in all other fields in registration form;
-8. Click Register button;</t>
-  </si>
-  <si>
     <t>Used data:
 Step 3:
 Email: mejltest32@gmail.com;
 Step 7:
-First name: Jelena;
-Last name: Vicentijevic;
+First name: Ivan;
+Last name: Damnjanovic;
 Password: apple5;
 Date of Birth: 30. May. 1988;
 Address: Avenue 25;
@@ -862,330 +1135,16 @@
 Mobile phone: 123456789;</t>
   </si>
   <si>
-    <t>Used data:
-Step 3:
-Email: mejltest33@gmail.com;
-Step 7:
-First name: Jelena;
-Last name: Vicentijevic;
-Password: apple5;
-Date of Birth: 30. May. 1988;
-Address: Avenue 25;
-City: 9;
-State: Arizona;
-Zip Code: 85003;
-Country: United States;
-Mobile phone: 123456789;</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
-3. Insert email address;
-4. Click on button Create an account;
-5. Click on field City;
-6. Input 9;
-7. Fill in all other fields in registration form;
-8. Click Register button;</t>
-  </si>
-  <si>
-    <t>Used data:
-Step 3:
-Email: mejltest35@gmail.com;
-Step 7:
-First name: Jelena;
-Last name: Vicentijevic;
-Password: apple5;
-Date of Birth: 30. May. 1988;
-Address: Avenue 25;
-City: Phoenix;
-State: Arizona;
-Zip Code: 85003;
-Country: United States;
-Mobile phone: input space;</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
-3. Insert email address;
-4. Click on button Create an account;
-5. Click on field Mobile phone;
-6. Input space;
-7. Fill in all other fields in registration form;
-8. Click Register button;</t>
-  </si>
-  <si>
-    <t>Used data:
-Step 3:
-Email: mejltest34@gmail.com;
-Step 7:
-First name: Jelena;
-Last name: Vicentijevic;
-Password: apple5;
-Date of Birth: 30. May. 1988;
-Address: Avenue 25;
-City: Phoenix;
-State: Arizona;
-Zip Code: 85003;
-Country: United States;
-Mobile phone: -;</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to registration page http://automationpractice.com/index.php?controller=authentication&amp;back=my-account;
-3. Insert email address;
-4. Click on button Create an account;
-5. Click on field Mobile phone;
-6. Input -;
-7. Fill in all other fields in registration form;
-8. Click Register button;</t>
-  </si>
-  <si>
-    <t>In registration page in registration form in the obligatory field Mobile phone it is possible to enter only sign -.</t>
-  </si>
-  <si>
-    <t>03.04.2020.</t>
-  </si>
-  <si>
-    <t>Women page</t>
-  </si>
-  <si>
-    <t>Filtered products by chosen price rang.</t>
-  </si>
-  <si>
-    <t>In WOMEN page when in slide bar Price Range is selected price range loading page starts without getting response and without filtering products by selected price range.</t>
-  </si>
-  <si>
-    <t>Filter products by price range</t>
-  </si>
-  <si>
-    <t>Filter products by size</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to Home page http://automationpractice.com/index.php;
-3. In menu click on WOMEN;
-4. Page opened;
-5. In left page side locate Size check boxes;
-6. Click on size S;</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to Home page http://automationpractice.com/index.php;
-3. In menu click on WOMEN;
-4. Page opened;
-5. In left page side locate Price Range slide bar;
-6. Move slide bar to chose price range $22.66 - $53.00;</t>
-  </si>
-  <si>
-    <t>Filtered products by chosen size.</t>
-  </si>
-  <si>
-    <t>In WOMEN page when in left page section Size is checked S loading page starts without getting response and without filtering products by chosen size.</t>
-  </si>
-  <si>
-    <t>Value31</t>
-  </si>
-  <si>
-    <t>Testing time: 13:36h</t>
-  </si>
-  <si>
-    <t>Testing time: 13:45h</t>
-  </si>
-  <si>
-    <t>Value32</t>
-  </si>
-  <si>
-    <t>Value33</t>
-  </si>
-  <si>
-    <t>Filter products by color</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to Home page http://automationpractice.com/index.php;
-3. In menu click on WOMEN;
-4. Page opened;
-5. In left page side locate Color check boxes;
-6. Click on color Orange;</t>
-  </si>
-  <si>
-    <t>Filtered products by chosen color</t>
-  </si>
-  <si>
-    <t>In WOMEN page when in left page section Color is checked Orange loading page starts without getting response and without filtering products by chosen color.</t>
-  </si>
-  <si>
-    <t>Testing time: 14:11h</t>
-  </si>
-  <si>
-    <t>Filter products by Compositions</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to Home page http://automationpractice.com/index.php;
-3. In menu click on WOMEN;
-4. Page opened;
-5. In left page side locate Compositions check boxes;
-6. Click on Cotton;</t>
-  </si>
-  <si>
-    <t>Filtered products by chosen material.</t>
-  </si>
-  <si>
-    <t>Testing time: 14:24h</t>
-  </si>
-  <si>
-    <t>Filter products by Categories</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to Home page http://automationpractice.com/index.php;
-3. In menu click on WOMEN;
-4. Page opened;
-5. In left page side locate Categories check boxes;
-6. Click on Tops;</t>
-  </si>
-  <si>
-    <t>Filtered products by chosen type (tops).</t>
-  </si>
-  <si>
-    <t>In WOMEN page when in left page section Compositions is checked Cotton loading page starts without getting response and without filtering products by chosen material.</t>
-  </si>
-  <si>
-    <t>In WOMEN page when in left page section Categories is checked Tops loading page starts without getting response and without filtering products by chosen type.</t>
-  </si>
-  <si>
-    <t>Value34</t>
-  </si>
-  <si>
-    <t>Testing time: 14:31h</t>
-  </si>
-  <si>
-    <t>Filter products by Styles</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to Home page http://automationpractice.com/index.php;
-3. In menu click on WOMEN;
-4. Page opened;
-5. In left page side locate Styles check boxes;
-6. Click on Casual;</t>
-  </si>
-  <si>
-    <t>Filtered products by chosen Styles.</t>
-  </si>
-  <si>
-    <t>In WOMEN page when in left page section Styles is checked Casual loading page starts without getting response and without filtering products by chosen style.</t>
-  </si>
-  <si>
-    <t>Testing time: 14:55h</t>
-  </si>
-  <si>
-    <t>Value35</t>
-  </si>
-  <si>
-    <t>Value36</t>
-  </si>
-  <si>
-    <t>Filter products by Properties</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to Home page http://automationpractice.com/index.php;
-3. In menu click on WOMEN;
-4. Page opened;
-5. In left page side locate Properties check boxes;
-6. Click on Maxi Dress;</t>
-  </si>
-  <si>
-    <t>Filtered products by chosen Property.</t>
-  </si>
-  <si>
-    <t>In WOMEN page when in left page section Properties is checked Maxi Dress loading page starts without getting response and without filtering products by chosen property.</t>
-  </si>
-  <si>
-    <t>Value37</t>
-  </si>
-  <si>
-    <t>Filter products by Availability</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to Home page http://automationpractice.com/index.php;
-3. In menu click on WOMEN;
-4. Page opened;
-5. In left page side locate Availability check boxes;
-6. Click on In stock;</t>
-  </si>
-  <si>
-    <t>Filtered products by chosen Availability.</t>
-  </si>
-  <si>
-    <t>In WOMEN page when in left page section Availability is checked In stock loading page starts without getting response and without filtering products by chosen availability.</t>
-  </si>
-  <si>
-    <t>Testing time: 15:05h</t>
-  </si>
-  <si>
-    <t>Testing time: 15:20h</t>
-  </si>
-  <si>
-    <t>Value38</t>
-  </si>
-  <si>
-    <t>Filter products by Manufacturer</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to Home page http://automationpractice.com/index.php;
-3. In menu click on WOMEN;
-4. Page opened;
-5. In left page side locate Manufacturer check boxes;
-6. Click on  Fashion Manufacturer;</t>
-  </si>
-  <si>
-    <t>Filtered products by chosen Manufacturer.</t>
-  </si>
-  <si>
-    <t>In WOMEN page when in left page section  Manufacturer is checked  Fashion Manufacturer loading page starts without getting response and without filtering products by chosen  Manufacturer.</t>
-  </si>
-  <si>
-    <t>Testing time: 15:25h</t>
-  </si>
-  <si>
-    <t>Value39</t>
-  </si>
-  <si>
-    <t>Filter products by Condition</t>
-  </si>
-  <si>
-    <t>1. Open browser;
-2. Go to Home page http://automationpractice.com/index.php;
-3. In menu click on WOMEN;
-4. Page opened;
-5. In left page side locate Condition check boxes;
-6. Click on  New;</t>
-  </si>
-  <si>
-    <t>Filtered products by chosen Condition.</t>
-  </si>
-  <si>
-    <t>In WOMEN page when in left page section  Condition is checked  New loading page starts without getting response and without filtering products by chosen  Condition.</t>
-  </si>
-  <si>
-    <t>Testing time: 15:30h</t>
-  </si>
-  <si>
-    <t>Ivan Damnjanovic</t>
-  </si>
-  <si>
-    <t>11.04.2020.</t>
+    <t>09.04.2020.</t>
+  </si>
+  <si>
+    <t>Value222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1909,11 +1868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO4" sqref="AO4"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1932,11 +1891,11 @@
     <col min="14" max="15" width="21.25" style="7" customWidth="1"/>
     <col min="16" max="16" width="25.375" style="7" customWidth="1"/>
     <col min="17" max="17" width="24.5" style="7" customWidth="1"/>
-    <col min="18" max="41" width="25.375" style="7" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="1"/>
+    <col min="18" max="40" width="25.375" style="7" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15.75">
+    <row r="1" spans="1:40" ht="15.75">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1968,100 +1927,97 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="R1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>128</v>
+        <v>251</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AD1" s="13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AE1" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AF1" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG1" s="13" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="AL1" s="13" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AN1" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:40">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -2117,573 +2073,558 @@
         <v>16</v>
       </c>
       <c r="S2" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T2" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U2" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V2" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W2" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X2" s="3">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="3">
         <v>23</v>
       </c>
-      <c r="Z2" s="15">
+      <c r="Y2" s="15">
         <v>24</v>
       </c>
+      <c r="Z2" s="8">
+        <v>25</v>
+      </c>
       <c r="AA2" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB2" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC2" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD2" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE2" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF2" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG2" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH2" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI2" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ2" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK2" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL2" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM2" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN2" s="8">
-        <v>38</v>
-      </c>
-      <c r="AO2" s="8">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="25.5">
+    <row r="3" spans="1:40" ht="25.5">
       <c r="A3" s="19"/>
       <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z3" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC3" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="AD3" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="AM3" s="8" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:40">
       <c r="A4" s="19"/>
       <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="AM4" s="8" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="AN4" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="28.5">
+    <row r="5" spans="1:40" ht="28.5">
       <c r="A5" s="19"/>
       <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE5" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF5" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG5" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH5" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ5" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK5" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL5" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="AM5" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="AN5" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="AO5" s="8" t="s">
-        <v>258</v>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE6" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO6" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:40">
       <c r="A7" s="19"/>
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="6"/>
@@ -2707,8 +2648,8 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
@@ -2723,1250 +2664,1219 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:40">
       <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z8" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AN8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="28.5">
+    <row r="9" spans="1:40" ht="28.5">
       <c r="A9" s="19"/>
       <c r="B9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AF9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AH9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AI9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AJ9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AK9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AL9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AM9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AN9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:40">
       <c r="A10" s="19"/>
       <c r="B10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN10" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="191.25">
+      <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO10" s="8" t="s">
-        <v>43</v>
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG11" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI11" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL11" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM11" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN11" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="191.25">
-      <c r="A11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="V11" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="W11" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="X11" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y11" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA11" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB11" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC11" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD11" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE11" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF11" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG11" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH11" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AI11" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="AJ11" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK11" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL11" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="AM11" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN11" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="AO11" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" ht="38.25">
+    <row r="12" spans="1:40" ht="38.25">
       <c r="A12" s="19"/>
       <c r="B12" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z12" s="18" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AD12" s="8" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AE12" s="8" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="AF12" s="8" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="AG12" s="8" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="AH12" s="8" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="AI12" s="8" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="AJ12" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="AK12" s="8" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AL12" s="8" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="AM12" s="8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="AN12" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="AO12" s="8" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="38.25">
+    <row r="13" spans="1:40" ht="38.25">
       <c r="A13" s="19"/>
       <c r="B13" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z13" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="Y13" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="AA13" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AB13" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AD13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE13" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AJ13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="89.25">
+    <row r="14" spans="1:40" ht="89.25">
       <c r="A14" s="19"/>
       <c r="B14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG14" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH14" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL14" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM14" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN14" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="X14" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y14" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z14" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB14" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC14" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD14" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE14" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF14" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG14" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH14" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI14" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ14" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK14" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="AL14" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM14" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN14" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="AO14" s="8" t="s">
-        <v>255</v>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
-      <c r="A15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO15" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:40">
       <c r="A16" s="19"/>
       <c r="B16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="V16" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="14" t="s">
-        <v>14</v>
+        <v>235</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="AA16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AD16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AF16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AG16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AH16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AI16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AJ16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AK16" s="8" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="AL16" s="8" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="AM16" s="8" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="AN16" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AO16" s="8" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:40">
       <c r="A17" s="19"/>
       <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN17" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="179.25">
+      <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="T17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="V17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="X17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO17" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" ht="179.25">
-      <c r="A18" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="B18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="6"/>
@@ -3982,80 +3892,77 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="X18" s="8" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="Z18" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="AA18" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB18" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC18" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD18" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE18" s="8"/>
       <c r="AF18" s="8" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="AG18" s="8" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="AJ18" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="AK18" s="8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AL18" s="8" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="AM18" s="8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="AN18" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="AO18" s="8" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
